--- a/SampleFramework/TestSuites&TestCases/Controller.xlsx
+++ b/SampleFramework/TestSuites&TestCases/Controller.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>BookAppointment</t>
+  </si>
+  <si>
+    <t>Reuse_Logout</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,11 +456,20 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SampleFramework/TestSuites&TestCases/Controller.xlsx
+++ b/SampleFramework/TestSuites&TestCases/Controller.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\SampleFramework\TestSuites&amp;TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\GithubRepo\TestSelKeyword1\TestSuites&amp;TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
